--- a/Random agents (and learning) performance.xlsx
+++ b/Random agents (and learning) performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caa01c13dfb6bdb4/UZH/Master/19HS/Deep Reinforcement learning/DeepLearning2048/DeepLearning2048/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\UZH\Master\19HS\Deep Reinforcement learning\DeepLearning2048\DeepLearning2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{739217D5-EB4C-4BDF-9D28-39924ABC91E8}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="1995" windowWidth="17280" windowHeight="8970" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
   </bookViews>
@@ -48,12 +48,6 @@
     <t>Avg reward</t>
   </si>
   <si>
-    <t>overall training</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>computed</t>
   </si>
   <si>
@@ -63,10 +57,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>random agent</t>
-  </si>
-  <si>
     <t>Tabular Q learning from random agent</t>
+  </si>
+  <si>
+    <t>arithmetic average</t>
+  </si>
+  <si>
+    <t>Test = tabular learning from random agent</t>
+  </si>
+  <si>
+    <t>overall training, 5k episodes</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80007AED-A9D3-4724-9DF9-1A6CAD427B80}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,183 +429,199 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>98.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>90.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C8">
+        <v>98.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>97.912000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>96.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>95.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>95.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C13">
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>95.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>98.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C6">
-        <v>90.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="C7">
-        <v>98.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="C8">
-        <v>97.912000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C9">
-        <v>96.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C10">
-        <v>95.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>95.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C12">
-        <v>94.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C13">
-        <v>95.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
+      <c r="B15">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>90.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <f>SUM(B5:B14)/10</f>
-        <v>4.4799999999999993E-2</v>
-      </c>
-      <c r="C16">
-        <f>SUM(C5:C14)/10</f>
-        <v>95.518200000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B6:B15)/10</f>
+        <v>4.4799999999999993E-2</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C6:C15)/10</f>
+        <v>95.518200000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>988.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C22">
+        <v>102.71</v>
+      </c>
+      <c r="D22">
+        <v>1219.0899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Random agents (and learning) performance.xlsx
+++ b/Random agents (and learning) performance.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\UZH\Master\19HS\Deep Reinforcement learning\DeepLearning2048\DeepLearning2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{739217D5-EB4C-4BDF-9D28-39924ABC91E8}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{571FBDB4-14F6-42C1-A235-ABCA988AB00A}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1995" windowWidth="17280" windowHeight="8970" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
   </bookViews>
   <sheets>
-    <sheet name="randomtry1, Q,EPS=1, A=0.8" sheetId="1" r:id="rId1"/>
+    <sheet name="Q, EPS=1,ALPH=0.5 (random)" sheetId="2" r:id="rId1"/>
+    <sheet name="Q, EPS=1,ALPH=0.8 (random)" sheetId="1" r:id="rId2"/>
+    <sheet name="SARSA, EPS=1,ALPH=0.8 (random)" sheetId="3" r:id="rId3"/>
+    <sheet name="SARSA, EPS=1,ALPH=0.5 (random)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>Training = random agent</t>
   </si>
@@ -67,6 +70,18 @@
   </si>
   <si>
     <t>overall training, 5k episodes</t>
+  </si>
+  <si>
+    <t>Q learn, alpha = 0.5</t>
+  </si>
+  <si>
+    <t>Q learn, alpha = 0.8</t>
+  </si>
+  <si>
+    <t>SARSA, alpha = 0.8</t>
+  </si>
+  <si>
+    <t>SARSA, alpha = 0.5</t>
   </si>
 </sst>
 </file>
@@ -82,12 +97,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80007AED-A9D3-4724-9DF9-1A6CAD427B80}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D788537-A92A-4047-A5F3-C5A4DCA7600F}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +468,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
@@ -463,10 +497,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4.8000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>98.43</v>
+        <v>93.82</v>
+      </c>
+      <c r="D6">
+        <v>946.27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,10 +511,10 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>3.2000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C7">
-        <v>90.82</v>
+        <v>94.84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>6.2E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>98.98</v>
+        <v>95.08</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>6.4000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>97.912000000000006</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C10">
-        <v>96.88</v>
+        <v>93.78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -518,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>3.7999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>95.26</v>
+        <v>95.51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>4.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>95.28</v>
+        <v>96.26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>4.2000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>94.86</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,22 +588,16 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>4.3999999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C14">
-        <v>95.92</v>
+        <v>92.57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C15">
-        <v>90.84</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -577,20 +608,20 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>4.4799999999999993E-2</v>
-      </c>
-      <c r="C17">
+        <v>3.9799999999999988E-2</v>
+      </c>
+      <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>95.518200000000007</v>
+        <v>85.555999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>988.66</v>
       </c>
     </row>
@@ -613,16 +644,455 @@
         <v>4</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80007AED-A9D3-4724-9DF9-1A6CAD427B80}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <f>SUM(B6:B15)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C6:C15)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="C22">
-        <v>102.71</v>
-      </c>
-      <c r="D22">
-        <v>1219.0899999999999</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D8E03-3DB2-4402-8980-E6CB0927459D}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <f>SUM(B6:B15)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C6:C15)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369145DB-3F3D-4012-994A-81E5F9C823A1}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <f>SUM(B6:B15)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C6:C15)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Random agents (and learning) performance.xlsx
+++ b/Random agents (and learning) performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\UZH\Master\19HS\Deep Reinforcement learning\DeepLearning2048\DeepLearning2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{571FBDB4-14F6-42C1-A235-ABCA988AB00A}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78B96344-378C-483C-83D6-F9449FD7507D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
+    <workbookView xWindow="30720" yWindow="210" windowWidth="17280" windowHeight="10770" firstSheet="1" activeTab="1" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
   </bookViews>
   <sheets>
     <sheet name="Q, EPS=1,ALPH=0.5 (random)" sheetId="2" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D788537-A92A-4047-A5F3-C5A4DCA7600F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,13 +497,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3.5999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>93.82</v>
+        <v>94.53</v>
       </c>
       <c r="D6">
-        <v>946.27</v>
+        <v>943.95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,10 +511,10 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
-        <v>94.84</v>
+        <v>94.28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -522,77 +522,41 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C8">
-        <v>95.08</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
-      </c>
-      <c r="B9">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C9">
-        <v>96.17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C10">
-        <v>93.78</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>0.05</v>
-      </c>
-      <c r="C11">
-        <v>95.51</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>0.04</v>
-      </c>
-      <c r="C12">
-        <v>96.26</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="C13">
-        <v>97.53</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C14">
-        <v>92.57</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -610,20 +574,18 @@
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>3.9799999999999988E-2</v>
+        <v>1.4400000000000001E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>85.555999999999997</v>
+        <v>28.356000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
-        <v>988.66</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -653,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80007AED-A9D3-4724-9DF9-1A6CAD427B80}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,15 +662,36 @@
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>96.4</v>
+      </c>
+      <c r="D6">
+        <v>964.33</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>95.09</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>95.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -757,11 +740,11 @@
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>0</v>
+        <v>1.3800000000000002E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>0</v>
+        <v>28.699000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -953,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369145DB-3F3D-4012-994A-81E5F9C823A1}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Random agents (and learning) performance.xlsx
+++ b/Random agents (and learning) performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\UZH\Master\19HS\Deep Reinforcement learning\DeepLearning2048\DeepLearning2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78B96344-378C-483C-83D6-F9449FD7507D}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CC14449-E138-42A7-B364-1113EF9BA49B}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="210" windowWidth="17280" windowHeight="10770" firstSheet="1" activeTab="1" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
+    <workbookView xWindow="30720" yWindow="210" windowWidth="17280" windowHeight="10770" activeTab="1" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
   </bookViews>
   <sheets>
     <sheet name="Q, EPS=1,ALPH=0.5 (random)" sheetId="2" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,6 +698,12 @@
       <c r="A9">
         <v>4</v>
       </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <v>97.96</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -740,11 +746,11 @@
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>1.3800000000000002E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>28.699000000000002</v>
+        <v>38.494999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">

--- a/Random agents (and learning) performance.xlsx
+++ b/Random agents (and learning) performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\UZH\Master\19HS\Deep Reinforcement learning\DeepLearning2048\DeepLearning2048\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lutharsanen\Documents\GitHub\DeepLearning2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{28323F50-7491-461B-B34F-993C94DC5856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78B96344-378C-483C-83D6-F9449FD7507D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39988672-683D-4D95-BD44-73DD5319C1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="210" windowWidth="17280" windowHeight="10770" firstSheet="1" activeTab="1" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18313DEB-2301-465F-AB17-31D94463C195}"/>
   </bookViews>
   <sheets>
     <sheet name="Q, EPS=1,ALPH=0.5 (random)" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SARSA, EPS=1,ALPH=0.8 (random)" sheetId="3" r:id="rId3"/>
     <sheet name="SARSA, EPS=1,ALPH=0.5 (random)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Training = random agent</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>SARSA, alpha = 0.5</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Test = tabular learning off random agent</t>
   </si>
 </sst>
 </file>
@@ -449,36 +455,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D788537-A92A-4047-A5F3-C5A4DCA7600F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -492,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -506,7 +512,7 @@
         <v>943.95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -517,7 +523,7 @@
         <v>94.28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -528,66 +534,72 @@
         <v>94.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <v>97.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>1.4400000000000001E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>28.356000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38.152000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -595,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -616,35 +628,35 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -658,102 +670,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5.3999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C6">
-        <v>96.4</v>
+        <v>93.91</v>
       </c>
       <c r="D6">
-        <v>964.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>960.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>0.04</v>
-      </c>
-      <c r="C7">
-        <v>95.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C8">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>1.3800000000000002E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>28.699000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9.391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -784,38 +784,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D8E03-3DB2-4402-8980-E6CB0927459D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -829,81 +829,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>97.99</v>
+      </c>
+      <c r="D6">
+        <v>994.71</v>
+      </c>
+      <c r="XFD6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>95.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>96.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>91.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.04</v>
+      </c>
+      <c r="C15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1">
         <f>SUM(B6:B15)/10</f>
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C6:C15)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95.77000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>966.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -911,7 +979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -922,10 +990,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2">
+        <v>105.54</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1234.28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -940,32 +1012,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -979,62 +1051,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1047,13 +1119,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
